--- a/Sailclear-Automation/TestData/sailclear-data.xlsx
+++ b/Sailclear-Automation/TestData/sailclear-data.xlsx
@@ -4,22 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="10365" windowHeight="3195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t xml:space="preserve">Type </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -31,9 +29,6 @@
   </si>
   <si>
     <t>Details</t>
-  </si>
-  <si>
-    <t>Rifle</t>
   </si>
   <si>
     <t>Test</t>
@@ -385,47 +380,41 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="A2">
+        <v>2009</v>
       </c>
       <c r="B2">
-        <v>2009</v>
+        <v>8878787866</v>
       </c>
       <c r="C2">
-        <v>8878787866</v>
-      </c>
-      <c r="D2">
         <v>2.5</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
